--- a/АД/Lab1.2/Lab1.2.XLSX
+++ b/АД/Lab1.2/Lab1.2.XLSX
@@ -206,12 +206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,9 +215,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,6 +227,15 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2442,10 +2442,10 @@
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -2455,10 +2455,10 @@
         <f>ROUND(A2,0)</f>
         <v>2</v>
       </c>
-      <c r="D2" s="10">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2468,8 +2468,8 @@
         <f t="shared" ref="B3:B66" si="0">ROUND(A3,0)</f>
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2479,10 +2479,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
         <v>4.5027932960893855</v>
       </c>
     </row>
@@ -2494,10 +2494,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.11017368113489029</v>
       </c>
     </row>
@@ -2509,10 +2509,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2524,10 +2524,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2539,10 +2539,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>1.4740233928440329</v>
       </c>
     </row>
@@ -2554,10 +2554,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>2.1727449626514344</v>
       </c>
     </row>
@@ -2569,10 +2569,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>-0.92100683287230289</v>
       </c>
     </row>
@@ -2584,10 +2584,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>-8.5356259399416656E-2</v>
       </c>
     </row>
@@ -2599,10 +2599,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2614,10 +2614,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2629,10 +2629,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>7</v>
       </c>
     </row>
@@ -2644,10 +2644,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>806</v>
       </c>
     </row>
@@ -2659,10 +2659,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>179</v>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -4187,23 +4187,23 @@
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4215,24 +4215,24 @@
         <f>ROUND(A2,0)</f>
         <v>2</v>
       </c>
-      <c r="D2" s="10">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15"/>
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="9">
         <v>21</v>
       </c>
-      <c r="J2" s="11">
-        <f ca="1">100*I2/$I$8</f>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2:J7" ca="1" si="0">100*I2/$I$8</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <f ca="1">J2</f>
         <v>11.666666666666666</v>
       </c>
@@ -4242,26 +4242,26 @@
         <v>6.4581438642536693</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B66" si="0">ROUND(A3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+        <f t="shared" ref="B3:B66" si="1">ROUND(A3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="9">
         <v>29</v>
       </c>
-      <c r="J3" s="11">
-        <f ca="1">100*I3/$I$8</f>
+      <c r="J3" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>16.111111111111111</v>
       </c>
-      <c r="K3" s="11">
-        <f t="shared" ref="K3:K8" ca="1" si="1">K2+J3</f>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K7" ca="1" si="2">K2+J3</f>
         <v>27.777777777777779</v>
       </c>
     </row>
@@ -4270,30 +4270,30 @@
         <v>5.6924344615009002</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
         <v>4.5027932960893855</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>37</v>
       </c>
-      <c r="J4" s="11">
-        <f ca="1">100*I4/$I$8</f>
+      <c r="J4" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>20.555555555555557</v>
       </c>
-      <c r="K4" s="11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K4" s="8">
+        <f t="shared" ca="1" si="2"/>
         <v>48.333333333333336</v>
       </c>
     </row>
@@ -4302,30 +4302,30 @@
         <v>4.7153843806268503</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.11017368113489029</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <v>43</v>
       </c>
-      <c r="J5" s="11">
-        <f ca="1">100*I5/$I$8</f>
+      <c r="J5" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>23.888888888888889</v>
       </c>
-      <c r="K5" s="11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K5" s="8">
+        <f t="shared" ca="1" si="2"/>
         <v>72.222222222222229</v>
       </c>
     </row>
@@ -4334,30 +4334,30 @@
         <v>6.4990386669515061</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <v>34</v>
       </c>
-      <c r="J6" s="11">
-        <f ca="1">100*I6/$I$8</f>
+      <c r="J6" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>18.888888888888889</v>
       </c>
-      <c r="K6" s="11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K6" s="8">
+        <f t="shared" ca="1" si="2"/>
         <v>91.111111111111114</v>
       </c>
     </row>
@@ -4366,30 +4366,30 @@
         <v>4.9984435560167242</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
         <v>5</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <v>16</v>
       </c>
-      <c r="J7" s="11">
-        <f ca="1">100*I7/$I$8</f>
+      <c r="J7" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>8.8888888888888893</v>
       </c>
-      <c r="K7" s="11">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K7" s="8">
+        <f t="shared" ca="1" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -4398,40 +4398,40 @@
         <v>4.226325266273995</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>1.4740233928440329</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="10">
         <f ca="1">SUM(I2:I8)</f>
         <v>180</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="10">
         <f ca="1">SUM(J2:J8)</f>
         <v>100</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6.0331736198004089</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>2.1727449626514344</v>
       </c>
     </row>
@@ -4440,13 +4440,13 @@
         <v>3.6335032197027495</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>-0.92100683287230289</v>
       </c>
     </row>
@@ -4455,13 +4455,13 @@
         <v>4.7948850978118234</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>-8.5356259399416656E-2</v>
       </c>
     </row>
@@ -4470,13 +4470,13 @@
         <v>2.8479567857905819</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>5</v>
       </c>
     </row>
@@ -4485,13 +4485,13 @@
         <v>6.3014313180944246</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4500,13 +4500,13 @@
         <v>3.9306009094515826</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>7</v>
       </c>
     </row>
@@ -4515,13 +4515,13 @@
         <v>2.0924710837122715</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>806</v>
       </c>
     </row>
@@ -4530,13 +4530,13 @@
         <v>6.9063081759086886</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>179</v>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
         <v>4.7205725272377697</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4554,7 +4554,7 @@
         <v>6.5492416150395218</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
         <v>6.6337778862880334</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
         <v>3.0159611804559465</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
         <v>6.4192327646717731</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
         <v>3.6844691305276651</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
         <v>6.5907467879268777</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
         <v>4.8865932187871941</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
         <v>3.0936307870723594</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
         <v>4.2728659932248911</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
         <v>5.5767693105868705</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
         <v>2.9097567674794762</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
         <v>2.3698843348490861</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
         <v>6.5336771752067628</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
         <v>3.1462752159184548</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -4680,7 +4680,7 @@
         <v>3.2891018402661212</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
         <v>3.5404217658009585</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
         <v>6.3797112949003569</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
         <v>2.6849879451887571</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
         <v>4.9906613361003451</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
         <v>4.8363902706991784</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
         <v>6.2303231910153514</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
         <v>3.1004974517044586</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -4752,7 +4752,7 @@
         <v>5.298135319071017</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
         <v>4.887203588976714</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4770,7 +4770,7 @@
         <v>6.2533646656697286</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
         <v>3.2170781579027681</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
         <v>2.2523880733664967</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
         <v>3.5277565843684195</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
         <v>2.5720694601275671</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
         <v>5.282570879238258</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
         <v>4.7574999237037261</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
         <v>4.6061281167027799</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
         <v>4.4657429731131932</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
         <v>6.492019409772027</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -4860,7 +4860,7 @@
         <v>3.6324350718710896</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
         <v>5.9497054963835563</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
         <v>5.0941190832239753</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
         <v>4.9358806115909299</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
         <v>4.3935666982024593</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
         <v>4.1468245490890228</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
         <v>2.7809686574907682</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
         <v>3.8779564806054871</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
         <v>5.0455946531571403</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
         <v>4.297891170995209</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
         <v>2.3840754417554244</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4959,7 +4959,7 @@
         <v>5.7693411053804127</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
         <v>4.6630451368755148</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
         <v>2.3938413647877437</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
         <v>3.7841120639667958</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
         <v>4.9053621021149327</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" ref="B67:B130" si="2">ROUND(A67,0)</f>
+        <f t="shared" ref="B67:B130" si="3">ROUND(A67,0)</f>
         <v>5</v>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
         <v>6.0455336161381874</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
         <v>5.4784997100741597</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
         <v>2.0248725852229379</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
         <v>5.1318094424268317</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
         <v>3.2248603778191471</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
         <v>2.2485732596819972</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5058,7 +5058,7 @@
         <v>6.1348002563554793</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5067,7 +5067,7 @@
         <v>6.5049897762993254</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
         <v>2.10879848628193</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
         <v>4.2519608142338328</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
         <v>6.1604358043153171</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
         <v>2.3140354625080111</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5112,7 +5112,7 @@
         <v>5.0390331736198011</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
         <v>5.3356730857264933</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
         <v>5.4463026825769827</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
         <v>5.3715323343607899</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
         <v>2.5464339121677297</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
         <v>4.5031281472212896</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
         <v>2.6872768333994568</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
         <v>4.9746391186254462</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5184,7 +5184,7 @@
         <v>3.0878322702719201</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
         <v>4.8357799005096584</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
         <v>5.7900936918240911</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
         <v>3.4516129032258065</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
         <v>4.0377208777123332</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
         <v>3.6353343302713093</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5238,7 +5238,7 @@
         <v>2.0709555345316937</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
         <v>3.6893520920438245</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
         <v>4.72515030365917</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
         <v>6.4427320169682911</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
         <v>6.8239082003234959</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
         <v>6.5576342051454208</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
         <v>4.7906125064851839</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
         <v>5.0903042695394758</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
         <v>4.7874080629902043</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
         <v>4.6285592211676381</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
         <v>3.6475417340617087</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
         <v>2.4445020905178989</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
         <v>6.5455793939024023</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
         <v>6.104892117069002</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5364,7 +5364,7 @@
         <v>4.3276467177343054</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
         <v>3.9924008911404769</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5382,7 +5382,7 @@
         <v>4.3889889217810598</v>
       </c>
       <c r="B110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
         <v>5.3565782647175517</v>
       </c>
       <c r="B111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
         <v>2.4930265205847348</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
         <v>3.9316690572832425</v>
       </c>
       <c r="B113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
         <v>4.6726584673604545</v>
       </c>
       <c r="B114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
         <v>3.976378673665578</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
         <v>3.8953520310068055</v>
       </c>
       <c r="B116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
         <v>5.91842402417066</v>
       </c>
       <c r="B117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
         <v>6.1967528305917536</v>
       </c>
       <c r="B118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
         <v>3.7589342936490979</v>
       </c>
       <c r="B119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5472,7 +5472,7 @@
         <v>6.0633869441816461</v>
       </c>
       <c r="B120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
         <v>6.1285439619129001</v>
       </c>
       <c r="B121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5490,7 +5490,7 @@
         <v>6.6461378826258128</v>
       </c>
       <c r="B122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
         <v>5.5099337748344368</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
         <v>2.499740592669454</v>
       </c>
       <c r="B124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
         <v>3.7914365062410349</v>
       </c>
       <c r="B125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -5526,7 +5526,7 @@
         <v>6.6162297433393356</v>
       </c>
       <c r="B126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
         <v>5.0918301950132756</v>
       </c>
       <c r="B127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
         <v>5.1710257271034878</v>
       </c>
       <c r="B128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
         <v>6.8498489333780936</v>
       </c>
       <c r="B129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
         <v>3.2587359233375039</v>
       </c>
       <c r="B130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
         <v>5.6117130039368881</v>
       </c>
       <c r="B131" s="2">
-        <f t="shared" ref="B131:B181" si="3">ROUND(A131,0)</f>
+        <f t="shared" ref="B131:B181" si="4">ROUND(A131,0)</f>
         <v>6</v>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
         <v>3.5663624988555558</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
         <v>2.9015167699209572</v>
       </c>
       <c r="B133" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5598,7 +5598,7 @@
         <v>3.0783715323343608</v>
       </c>
       <c r="B134" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
         <v>2.1583910641804254</v>
       </c>
       <c r="B135" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5616,7 +5616,7 @@
         <v>6.1132847071749019</v>
       </c>
       <c r="B136" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
         <v>3.0837122714926606</v>
       </c>
       <c r="B137" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5634,7 +5634,7 @@
         <v>5.9097262489700002</v>
       </c>
       <c r="B138" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
         <v>2.9947508163701286</v>
       </c>
       <c r="B139" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5652,7 +5652,7 @@
         <v>2.2253791924802391</v>
       </c>
       <c r="B140" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
         <v>4.0493179113132118</v>
       </c>
       <c r="B141" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
         <v>4.6076540421765806</v>
       </c>
       <c r="B142" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
         <v>3.6103091525009918</v>
       </c>
       <c r="B143" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
         <v>5.7687307351908927</v>
       </c>
       <c r="B144" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
         <v>5.6985381633960994</v>
       </c>
       <c r="B145" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
         <v>2.4828028199102756</v>
       </c>
       <c r="B146" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
         <v>2.5424665059358502</v>
       </c>
       <c r="B147" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
         <v>3.2221137119663075</v>
       </c>
       <c r="B148" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
         <v>4.8159428693502608</v>
       </c>
       <c r="B149" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5742,7 +5742,7 @@
         <v>3.0112308114871666</v>
       </c>
       <c r="B150" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
         <v>5.3718375194555499</v>
       </c>
       <c r="B151" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5760,7 +5760,7 @@
         <v>2.3199865718558303</v>
       </c>
       <c r="B152" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
         <v>2.274056215094455</v>
       </c>
       <c r="B153" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5778,7 +5778,7 @@
         <v>3.8511001922666099</v>
       </c>
       <c r="B154" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
         <v>5.7961973937192903</v>
       </c>
       <c r="B155" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
         <v>4.4515518662068541</v>
       </c>
       <c r="B156" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
         <v>3.9569994201483198</v>
       </c>
       <c r="B157" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5814,7 +5814,7 @@
         <v>4.6973784600360116</v>
       </c>
       <c r="B158" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
         <v>5.1922360911893062</v>
       </c>
       <c r="B159" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5832,7 +5832,7 @@
         <v>6.6024964140751372</v>
       </c>
       <c r="B160" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
         <v>3.0599078341013826</v>
       </c>
       <c r="B161" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5850,7 +5850,7 @@
         <v>6.0054017761772513</v>
       </c>
       <c r="B162" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
         <v>4.5688955351420635</v>
       </c>
       <c r="B163" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5868,7 +5868,7 @@
         <v>6.1190832239753412</v>
       </c>
       <c r="B164" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
         <v>3.923276467177343</v>
       </c>
       <c r="B165" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
         <v>3.1152989288003172</v>
       </c>
       <c r="B166" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
         <v>5.3205664235358743</v>
       </c>
       <c r="B167" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5904,7 +5904,7 @@
         <v>4.0754112369151887</v>
       </c>
       <c r="B168" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
         <v>5.056123538926359</v>
       </c>
       <c r="B169" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
         <v>2.8076723532822658</v>
       </c>
       <c r="B170" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
         <v>2.6836146122623372</v>
       </c>
       <c r="B171" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
         <v>5.5253456221198149</v>
       </c>
       <c r="B172" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
         <v>6.5040742210150455</v>
       </c>
       <c r="B173" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
         <v>6.822687459944456</v>
       </c>
       <c r="B174" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
         <v>3.3068025757621999</v>
       </c>
       <c r="B175" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
         <v>2.4205450605792413</v>
       </c>
       <c r="B176" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
         <v>4.2209845271156956</v>
       </c>
       <c r="B177" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5994,7 +5994,7 @@
         <v>4.3714407788323619</v>
       </c>
       <c r="B178" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
         <v>5.8366344187749863</v>
       </c>
       <c r="B179" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
         <v>2.476241340372936</v>
       </c>
       <c r="B180" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
         <v>6.5973082674642169</v>
       </c>
       <c r="B181" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
